--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3028147.858432241</v>
+        <v>3025650.123081792</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8660861.124314507</v>
+        <v>8660861.124314506</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>353.9506830819039</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>214.2672813101804</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.93856390941626</v>
+        <v>412.9385639094162</v>
       </c>
       <c r="H2" t="n">
         <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359322</v>
+        <v>119.3310866359321</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680916584</v>
+        <v>1.36059768091647</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>155.1464635459283</v>
       </c>
       <c r="T2" t="n">
         <v>212.7466796050973</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.0283793981797</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>143.5644081416961</v>
       </c>
       <c r="G3" t="n">
         <v>136.0785727665282</v>
@@ -756,7 +756,7 @@
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370739</v>
+        <v>45.84481919370735</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353355</v>
+        <v>21.62032152353349</v>
       </c>
       <c r="S3" t="n">
         <v>148.187383735635</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768616</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.5587419097207</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.382756997752</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.6100444894001</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.5352037822505</v>
       </c>
       <c r="T4" t="n">
-        <v>223.4144181712553</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2611846170395</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>192.514999257719</v>
       </c>
       <c r="X4" t="n">
-        <v>176.7526715724076</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>16.05895699758686</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -953,13 +953,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>317.0909106029383</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>9.579478589972654</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>184.6902077947048</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>216.0276236092071</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>269.937274051073</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,28 +1291,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>142.5318748130976</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>9.476356007231301</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633182675</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>79.70119244397881</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>26.05480806223588</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>106.7475924760369</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>23.1099832571722</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>125.2851635392057</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>51.3656974031032</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>25.52471385612282</v>
+        <v>73.9322284908373</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>41.02686156550273</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>55.52079624060472</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>55.52079624060473</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529832</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>51.35059460820252</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4034,7 +4034,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>125.2851635392059</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>721.1854054302476</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="C2" t="n">
-        <v>721.1854054302476</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="D2" t="n">
-        <v>721.1854054302476</v>
+        <v>1319.780116977249</v>
       </c>
       <c r="E2" t="n">
-        <v>721.1854054302476</v>
+        <v>1319.780116977249</v>
       </c>
       <c r="F2" t="n">
-        <v>504.7538081472371</v>
+        <v>908.7942121876411</v>
       </c>
       <c r="G2" t="n">
         <v>491.6845516730792</v>
       </c>
       <c r="H2" t="n">
-        <v>173.2373706870191</v>
+        <v>173.237370687019</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>239.5208398512381</v>
+        <v>239.5208398512382</v>
       </c>
       <c r="K2" t="n">
-        <v>319.3563181321747</v>
+        <v>319.356318132175</v>
       </c>
       <c r="L2" t="n">
-        <v>868.785652738457</v>
+        <v>868.7856527384575</v>
       </c>
       <c r="M2" t="n">
-        <v>1051.719798502175</v>
+        <v>1496.73819666008</v>
       </c>
       <c r="N2" t="n">
-        <v>1422.405955251801</v>
+        <v>1799.398134701918</v>
       </c>
       <c r="O2" t="n">
         <v>1965.954194448895</v>
@@ -4352,28 +4352,28 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2633.671635888807</v>
+        <v>2633.671635888808</v>
       </c>
       <c r="S2" t="n">
-        <v>2633.671635888807</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="T2" t="n">
-        <v>2418.775999924062</v>
+        <v>2262.062400382721</v>
       </c>
       <c r="U2" t="n">
-        <v>2165.082546369134</v>
+        <v>2008.368946827793</v>
       </c>
       <c r="V2" t="n">
-        <v>1834.019659025563</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="W2" t="n">
-        <v>1481.251003755449</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="X2" t="n">
-        <v>1107.785245494369</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="Y2" t="n">
-        <v>1107.785245494369</v>
+        <v>1677.306059484222</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.6504081935055</v>
+        <v>965.1304038988715</v>
       </c>
       <c r="C3" t="n">
-        <v>792.1973789123786</v>
+        <v>790.6773746177445</v>
       </c>
       <c r="D3" t="n">
-        <v>643.2629692511273</v>
+        <v>641.7429649564932</v>
       </c>
       <c r="E3" t="n">
-        <v>484.0255142456718</v>
+        <v>482.5055099510377</v>
       </c>
       <c r="F3" t="n">
         <v>337.4909562725568</v>
@@ -4401,31 +4401,31 @@
         <v>200.0378524679829</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507485</v>
+        <v>99.00881771507483</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961285</v>
+        <v>170.2762045496335</v>
       </c>
       <c r="K3" t="n">
-        <v>328.0414482604607</v>
+        <v>497.8519368624348</v>
       </c>
       <c r="L3" t="n">
-        <v>462.77990014763</v>
+        <v>999.722330600029</v>
       </c>
       <c r="M3" t="n">
-        <v>1100.418199582518</v>
+        <v>1176.312616922418</v>
       </c>
       <c r="N3" t="n">
-        <v>1752.592078885227</v>
+        <v>1828.486496225127</v>
       </c>
       <c r="O3" t="n">
-        <v>2299.29831884623</v>
+        <v>2375.19273618613</v>
       </c>
       <c r="P3" t="n">
-        <v>2405.797066257506</v>
+        <v>2613.773581115997</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350.4180699278293</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C4" t="n">
-        <v>350.4180699278293</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D4" t="n">
-        <v>350.4180699278293</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E4" t="n">
-        <v>350.4180699278293</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
-        <v>350.4180699278293</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
-        <v>350.4180699278293</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
-        <v>196.0761709613024</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
-        <v>71.26936095148356</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131524</v>
+        <v>152.6313247131525</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039132</v>
+        <v>336.0342731039134</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856114</v>
+        <v>539.7960902856117</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066368</v>
+        <v>744.1475233066373</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249424</v>
+        <v>916.8828514249429</v>
       </c>
       <c r="P4" t="n">
         <v>1041.167083351319</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221468</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221468</v>
+        <v>912.8607263634885</v>
       </c>
       <c r="S4" t="n">
-        <v>1043.779963221468</v>
+        <v>705.2494094117203</v>
       </c>
       <c r="T4" t="n">
-        <v>818.1088337555536</v>
+        <v>705.2494094117203</v>
       </c>
       <c r="U4" t="n">
-        <v>528.9561220211704</v>
+        <v>416.096697677337</v>
       </c>
       <c r="V4" t="n">
-        <v>528.9561220211704</v>
+        <v>416.096697677337</v>
       </c>
       <c r="W4" t="n">
-        <v>528.9561220211704</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="X4" t="n">
-        <v>350.4180699278293</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="Y4" t="n">
-        <v>350.4180699278293</v>
+        <v>221.6371024675198</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1289.13715517095</v>
+        <v>947.13753815053</v>
       </c>
       <c r="C5" t="n">
-        <v>1272.915986486519</v>
+        <v>578.1750212101183</v>
       </c>
       <c r="D5" t="n">
-        <v>914.6502878797686</v>
+        <v>578.1750212101183</v>
       </c>
       <c r="E5" t="n">
-        <v>914.6502878797686</v>
+        <v>192.386768611874</v>
       </c>
       <c r="F5" t="n">
-        <v>907.7047871305651</v>
+        <v>185.4412678626705</v>
       </c>
       <c r="G5" t="n">
-        <v>490.6170053669925</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H5" t="n">
         <v>172.393890139502</v>
@@ -4565,22 +4565,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>323.9039731279416</v>
+        <v>353.1092040676443</v>
       </c>
       <c r="L5" t="n">
-        <v>876.7172313741407</v>
+        <v>905.9224623138435</v>
       </c>
       <c r="M5" t="n">
-        <v>1508.435042357452</v>
+        <v>1537.640273297155</v>
       </c>
       <c r="N5" t="n">
-        <v>1790.385944549488</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O5" t="n">
-        <v>1960.554969866447</v>
+        <v>2279.135690956215</v>
       </c>
       <c r="P5" t="n">
         <v>2389.870016205742</v>
@@ -4601,16 +4601,16 @@
         <v>2010.339374490333</v>
       </c>
       <c r="V5" t="n">
-        <v>1679.276487146762</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="W5" t="n">
-        <v>1679.276487146762</v>
+        <v>1657.570719220219</v>
       </c>
       <c r="X5" t="n">
-        <v>1679.276487146762</v>
+        <v>1337.276870126342</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.13715517095</v>
+        <v>947.13753815053</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K6" t="n">
-        <v>120.3087392029699</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L6" t="n">
-        <v>624.6702790690885</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M6" t="n">
-        <v>1265.215628536193</v>
+        <v>1278.563523185117</v>
       </c>
       <c r="N6" t="n">
-        <v>1917.389507838902</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O6" t="n">
-        <v>2076.901820507663</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P6" t="n">
-        <v>2500.869588988499</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2266.841746701206</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C7" t="n">
-        <v>2097.905563773299</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D7" t="n">
-        <v>1947.788924360963</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
-        <v>1799.87583077857</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F7" t="n">
-        <v>1652.98588328066</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>1652.98588328066</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
-        <v>1652.98588328066</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I7" t="n">
-        <v>1652.98588328066</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J7" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K7" t="n">
-        <v>1736.159225116907</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L7" t="n">
-        <v>1920.992220017726</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M7" t="n">
-        <v>2126.261820736964</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N7" t="n">
-        <v>2332.085185573068</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O7" t="n">
-        <v>2506.180080961667</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P7" t="n">
-        <v>2631.627657560283</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q7" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>2635.045976980643</v>
+        <v>1042.959359998985</v>
       </c>
       <c r="S7" t="n">
-        <v>2635.045976980643</v>
+        <v>1042.959359998985</v>
       </c>
       <c r="T7" t="n">
-        <v>2635.045976980643</v>
+        <v>817.3301633113501</v>
       </c>
       <c r="U7" t="n">
-        <v>2635.045976980643</v>
+        <v>528.1779868890299</v>
       </c>
       <c r="V7" t="n">
-        <v>2635.045976980643</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="W7" t="n">
-        <v>2635.045976980643</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="X7" t="n">
-        <v>2448.490211531446</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y7" t="n">
-        <v>2448.490211531446</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1172.90259207641</v>
+        <v>390.9169132394753</v>
       </c>
       <c r="C8" t="n">
-        <v>954.6928712590286</v>
+        <v>390.9169132394753</v>
       </c>
       <c r="D8" t="n">
-        <v>596.4271726522782</v>
+        <v>390.9169132394753</v>
       </c>
       <c r="E8" t="n">
-        <v>596.4271726522782</v>
+        <v>390.9169132394753</v>
       </c>
       <c r="F8" t="n">
-        <v>185.4412678626705</v>
+        <v>383.9714124902719</v>
       </c>
       <c r="G8" t="n">
-        <v>172.393890139502</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H8" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4022825530416</v>
+        <v>621.7125031813</v>
       </c>
       <c r="L8" t="n">
-        <v>741.5523062596352</v>
+        <v>1174.525761427499</v>
       </c>
       <c r="M8" t="n">
-        <v>1373.270117242947</v>
+        <v>1806.243572410811</v>
       </c>
       <c r="N8" t="n">
         <v>2000.577785302793</v>
@@ -4829,25 +4829,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2264.031077745182</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U8" t="n">
-        <v>2264.031077745182</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V8" t="n">
-        <v>1932.968190401611</v>
+        <v>1893.890498810603</v>
       </c>
       <c r="W8" t="n">
-        <v>1932.968190401611</v>
+        <v>1541.121843540489</v>
       </c>
       <c r="X8" t="n">
-        <v>1559.502432140531</v>
+        <v>1167.656085279409</v>
       </c>
       <c r="Y8" t="n">
-        <v>1559.502432140531</v>
+        <v>777.5167533035972</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K9" t="n">
-        <v>120.3087392029699</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L9" t="n">
-        <v>257.5383372186639</v>
+        <v>743.329530925984</v>
       </c>
       <c r="M9" t="n">
-        <v>898.0836866857685</v>
+        <v>1383.874880393089</v>
       </c>
       <c r="N9" t="n">
-        <v>1550.257565988477</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O9" t="n">
-        <v>2099.6935747412</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P9" t="n">
-        <v>2523.661343222037</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.045976980643</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>650.1945570251878</v>
+        <v>196.6725102599135</v>
       </c>
       <c r="C10" t="n">
-        <v>650.1945570251878</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D10" t="n">
-        <v>650.1945570251878</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>502.2814634427947</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
-        <v>355.3915159448843</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>186.7846709402677</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>186.7846709402677</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
-        <v>62.27299631459397</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
         <v>52.70091953961285</v>
@@ -4984,28 +4984,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.635600998958</v>
+        <v>633.00546329604</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.635600998958</v>
+        <v>378.3209750901532</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.635600998958</v>
+        <v>378.3209750901532</v>
       </c>
       <c r="X10" t="n">
-        <v>1052.635600998958</v>
+        <v>378.3209750901532</v>
       </c>
       <c r="Y10" t="n">
-        <v>831.8430218554275</v>
+        <v>378.3209750901532</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273906</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921476</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898186995</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>363.7369613277309</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>215.8238677453378</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>215.8238677453378</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>215.8238677453378</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797761</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W13" t="n">
-        <v>1353.195110654903</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>2231.588527385792</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K15" t="n">
-        <v>2565.513299557012</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L15" t="n">
-        <v>2565.513299557012</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>3087.702309109633</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>3715.300272664239</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>4267.210002903526</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>4690.833152398594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5410,55 +5410,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
@@ -5470,16 +5470,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.605706616408</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1358.188536579448</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1130.19898568143</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5540,10 +5540,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,28 +5762,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
         <v>1859.536823237711</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
         <v>175.9033664000583</v>
@@ -5905,55 +5905,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -6069,25 +6069,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887188</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892776</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.07903472198</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171269</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>564.51888278922</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>414.4022433768843</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>266.4891497944911</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>119.5992022965808</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>119.5992022965808</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487564</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831762</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625875</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588914</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.896109690897</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473666</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.07903472198</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2253.988764961267</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,19 +6947,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1540.888753373306</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048583</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925226</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101294</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>149.8982754122191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,16 +7199,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852888</v>
@@ -7217,7 +7217,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961526</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>740.5562989961526</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1368.15426255076</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1920.063992790047</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2343.687142285115</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327652</v>
+        <v>642.8692823226939</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048583</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925226</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101294</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>149.8982754122191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>149.8982754122191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630049</v>
+        <v>824.5177471529337</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2022.116874200839</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2445.740023695907</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>931.4710609784063</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7719,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961526</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2313.46766635706</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343197</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2570777219839</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3439841395908</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>302.4540366416804</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7985,13 +7985,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>181.9981180574306</v>
+        <v>113.2847658273418</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.328121188872885</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>211.7024051015146</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>461.1122511579961</v>
+        <v>461.1122511579958</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>133.4162601197882</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>198.5968484445008</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8225,13 +8225,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>88.50170636368983</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384286</v>
+        <v>163.3181754619436</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>112.5650977678447</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>300.8166970235944</v>
       </c>
       <c r="L8" t="n">
-        <v>126.0821897629701</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>458.0981188384286</v>
+        <v>240.7280987119437</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>89.54312379457433</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>-1.093502476537661e-13</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143971</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>206.8218058926122</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>145.3900508477911</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>125.5054897610402</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>92.12028678808259</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>114.1584408891656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>114.769998990101</v>
+        <v>66.36248435538658</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>119.404764594808</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.9994244361419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>110.0033420516641</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>84.77391660561912</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667965</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>167.2340587438923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>40.23897475306292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>798987.4284289563</v>
+        <v>798987.4284289562</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>732531.3793711286</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>732531.3793711286</v>
+        <v>732531.3793711289</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846414</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846407</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846404</v>
       </c>
-      <c r="D2" t="n">
-        <v>697885.5043846407</v>
-      </c>
       <c r="E2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="I2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="L2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="J2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365061</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="M2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365055</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918874</v>
+        <v>787455.5478918878</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008500201</v>
+        <v>4906.24700849981</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765847</v>
+        <v>775688.3472765845</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.992400281</v>
+        <v>172360.9924002808</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909053</v>
+        <v>190891.9800909052</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26424,40 +26424,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707348</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707319</v>
+        <v>6897.424496707416</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670733</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707343</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707279</v>
+        <v>6897.424496707383</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.42449670733</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670732</v>
+        <v>6897.424496707353</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707319</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707374</v>
+        <v>6897.424496707395</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707333</v>
+        <v>6897.424496707353</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707321</v>
+        <v>6897.424496707369</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-366962.6448686691</v>
+        <v>-366962.644868669</v>
       </c>
       <c r="C6" t="n">
-        <v>416469.3671170458</v>
+        <v>416469.3671170465</v>
       </c>
       <c r="D6" t="n">
-        <v>421375.6141255463</v>
+        <v>421375.614125546</v>
       </c>
       <c r="E6" t="n">
-        <v>-197633.6918606936</v>
+        <v>-197668.4297861293</v>
       </c>
       <c r="F6" t="n">
-        <v>578054.6554158912</v>
+        <v>578019.9174904558</v>
       </c>
       <c r="G6" t="n">
-        <v>578054.6554158913</v>
+        <v>578019.9174904557</v>
       </c>
       <c r="H6" t="n">
-        <v>578054.655415891</v>
+        <v>578019.9174904553</v>
       </c>
       <c r="I6" t="n">
-        <v>578054.6554158912</v>
+        <v>578019.9174904557</v>
       </c>
       <c r="J6" t="n">
-        <v>405693.6630156102</v>
+        <v>405658.9250901747</v>
       </c>
       <c r="K6" t="n">
-        <v>578054.6554158917</v>
+        <v>578019.9174904556</v>
       </c>
       <c r="L6" t="n">
-        <v>578054.6554158914</v>
+        <v>578019.9174904554</v>
       </c>
       <c r="M6" t="n">
-        <v>449977.0586001776</v>
+        <v>449942.3206747414</v>
       </c>
       <c r="N6" t="n">
-        <v>578054.6554158914</v>
+        <v>578019.9174904556</v>
       </c>
       <c r="O6" t="n">
-        <v>578054.6554158911</v>
+        <v>578019.9174904556</v>
       </c>
       <c r="P6" t="n">
-        <v>578054.6554158912</v>
+        <v>578019.9174904554</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.015790261611063e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225496</v>
+        <v>588.0881844225501</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26796,16 +26796,16 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26814,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225496</v>
+        <v>588.0881844225501</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915515451</v>
+        <v>5.387915915515022</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.946793854488</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.946793854488</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.946793854488</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0.7323585387790104</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>192.6087644315311</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459284</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.504804251687688</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.504804251687773</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.38275699775194</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894001</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5352037822505</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>94.00799907887196</v>
       </c>
       <c r="X4" t="n">
-        <v>48.95698381662953</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>349.2139347734207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>52.64019007553077</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27795,7 +27795,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>119.5937030778187</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>41.01944759433235</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>149.2452681618005</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.81498441906194</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>24.7149462855302</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>8.219485874537684</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28065,10 +28065,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.656949185851152e-14</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-5.681602616057837e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.8421709430404e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-5.681602616057837e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>7.71678812803845e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30754,7 +30754,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718791</v>
+        <v>2.364173605718793</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956757</v>
+        <v>24.21209293956759</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447376</v>
+        <v>91.14480293447383</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683754</v>
+        <v>200.6562795683755</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984519</v>
+        <v>300.7317482984521</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844684</v>
+        <v>373.0843262844687</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451699</v>
+        <v>415.1281986451702</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024185</v>
+        <v>421.8454069024187</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105522</v>
+        <v>398.3366556105525</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193695</v>
+        <v>339.9711197193698</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645652</v>
+        <v>255.3041524645654</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602331</v>
+        <v>148.5085202602332</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031699</v>
+        <v>53.87360604031704</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903401</v>
+        <v>10.34916995903402</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575032</v>
+        <v>0.1891338884575034</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682465</v>
+        <v>1.264944396682466</v>
       </c>
       <c r="H3" t="n">
         <v>12.2166998311175</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770769</v>
+        <v>43.55181365770773</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777938</v>
+        <v>119.5095054777939</v>
       </c>
       <c r="K3" t="n">
-        <v>204.260780055519</v>
+        <v>204.2607800555191</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305502</v>
+        <v>274.6538261305504</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102895</v>
+        <v>320.5080605102897</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704978</v>
+        <v>328.9909551704981</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808495</v>
+        <v>300.9624503808498</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489525</v>
+        <v>241.5488997489527</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361687</v>
+        <v>161.4690426361689</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910959</v>
+        <v>78.53751262910964</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820279</v>
+        <v>23.49578736820281</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908707</v>
+        <v>5.09861359890871</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753064</v>
+        <v>0.08322002609753071</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942302</v>
+        <v>1.060486889942303</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577932</v>
+        <v>9.428692530577939</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753761</v>
+        <v>31.89173301753764</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892078</v>
+        <v>74.97642311892083</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314784</v>
+        <v>123.2092950314785</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646947</v>
+        <v>157.6654781646948</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934102</v>
+        <v>166.2361403934103</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308981</v>
+        <v>162.2834165308982</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983902</v>
+        <v>149.8950014983903</v>
       </c>
       <c r="P4" t="n">
         <v>128.2610689435672</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780499</v>
+        <v>88.80131584780506</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776933</v>
+        <v>47.68334688776937</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472176</v>
+        <v>18.48139425472177</v>
       </c>
       <c r="T4" t="n">
-        <v>4.5311712570262</v>
+        <v>4.531171257026203</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139838</v>
+        <v>0.05784473945139842</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>361.1081696176606</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>552.0015769888928</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>669.5976799347659</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>154.5219885631796</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>658.2124561388956</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,16 +32789,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>537.2623544349631</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760385</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>163.4402738502014</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2529048371025</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>314.4610577451602</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>248.3870916262918</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>344.9857809048113</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>188.7069902137629</v>
+        <v>188.706990213763</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347131</v>
+        <v>80.64189725347154</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649316</v>
+        <v>554.9791258649318</v>
       </c>
       <c r="M2" t="n">
-        <v>184.7819654178972</v>
+        <v>634.29549891073</v>
       </c>
       <c r="N2" t="n">
-        <v>374.4304613632581</v>
+        <v>305.7171091331696</v>
       </c>
       <c r="O2" t="n">
-        <v>549.0386254516109</v>
+        <v>168.2384441888658</v>
       </c>
       <c r="P2" t="n">
-        <v>430.5368321355826</v>
+        <v>430.5368321355829</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.3134532500204</v>
+        <v>245.3134532500206</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>118.762914151536</v>
       </c>
       <c r="K3" t="n">
-        <v>278.1217461826746</v>
+        <v>330.8845780937387</v>
       </c>
       <c r="L3" t="n">
-        <v>136.099446350676</v>
+        <v>506.9397916541354</v>
       </c>
       <c r="M3" t="n">
-        <v>644.079090338271</v>
+        <v>178.3740265882714</v>
       </c>
       <c r="N3" t="n">
         <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131346</v>
+        <v>552.2285252131348</v>
       </c>
       <c r="P3" t="n">
-        <v>107.5744923346223</v>
+        <v>240.9907524544107</v>
       </c>
       <c r="Q3" t="n">
-        <v>231.5645562859963</v>
+        <v>21.48726855014735</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055955</v>
+        <v>100.9398032055956</v>
       </c>
       <c r="L4" t="n">
-        <v>185.2555034250108</v>
+        <v>185.255503425011</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552508</v>
+        <v>205.8200173552509</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101267</v>
+        <v>206.4155889101268</v>
       </c>
       <c r="O4" t="n">
-        <v>174.4801294124299</v>
+        <v>174.48012941243</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084606</v>
+        <v>125.5396282084607</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110601</v>
+        <v>2.639272596110672</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>281.9939742774224</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
@@ -34945,13 +34945,13 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>284.798891103066</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>247.6524856312129</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451606</v>
+        <v>363.9815508686756</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.5317050425689</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>384.2138228565159</v>
       </c>
       <c r="L8" t="n">
-        <v>266.8182057642359</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>171.8879043605652</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>658.7614942451606</v>
+        <v>441.3914741186757</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>112.5097310692986</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>222.5537898377864</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191328</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060407</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.0916319071262</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>527.4636460127475</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>20.54758114884936</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>526.8707440555623</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36437,16 +36437,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>394.6661099905186</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998946</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>101.8925903961643</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>29.46586643587111</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>471.1188709150841</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>91.80490927281524</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>174.4792836591387</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>108.4053175402703</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>205.0040068187898</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
